--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,1221 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chester Bennington died by suicide 4 years ago today. I'd like to take this opportunity to share some of his covers, collaborations, and non-Linkin Park work for those who want to hear "new" music with his unmistakable voice.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>desire</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bahar Khorshidi was a 23 yo painter and translator from Iran. on September 22, she was followed by the IR forces because she carried signs of "Woman Life Freedom" and "Mahsa Amini" with her. She was pushed from the 4th floor and killed. This news was not shared publicly until yesterday.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The majority of Pokemon players are over 18 years old: data and sources inside</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[OC] The fastest tweet-to-/r/nfl-front-page in the last year was Zeke Elliott's suspension, in 6.6 seconds. Slowest was a Blake Bortles stat (15 days). Full ranking inside.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>It was a little league football game, it didn't have to end like this.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[Ari Meirov] Regarding the waiver wire and Baker Mayfield: The #49ers are 25th on the waiver wire order. The #Texans are 1st. The #Rams, who just placed Matthew Stafford on IR, have a rivalry with SF, and don’t have a first-round pick, are 4th. A team claiming him would owe $1.3M.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Far Cry 5 - Review Thread</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(Video Proof) Upstairs neighbor stalks me</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Owners/History of All Exotics Part I: Weapons</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Humans Don't Hibernate [Part 4/?]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The post in which I ALMOST prove the existence of swaps and Popcorn is 100% FUD. Oh, about that tombstone tweet….</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EDIT - everything tastes better crispr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>🎉 Hololive's June 2021 Megathread 🎉</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>First Contact - Chapter 562 - 4th &amp; 10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Developement</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Zach Ertz: 2022's Tight End Cheat Code | Fantasy Football Film Study &amp; Analysis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A comprehensive guide to obtaining all the Y2/Y3 exotic weapons</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The 2017 All-IR Team plays a season</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Innovation</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[Spoilers] Big List of (Remaining) Villains!</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Developement</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OOP is certain her upstairs neighbor is stalking her through unknown means. /r/RBI is not so sure.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ex committed ID theft, fraud, embezzlemnt. 5 years of litigation later, should I just file BK??</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>confusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>least delusional world cup prediction</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Short me on pay, huh?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>curiosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[Serious] Consolidating all the Andrew Luck information</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Developement</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>With Luck heading to IR, all 2012 1st RD QBs (Luck, RG3, Tannehill, Weeden) will have a total of zero snaps this year.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Exposing the Dark Truth Behind A-Level Project Work</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Crota's End SOLO Guide Compilation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[OC] Punt Rank 2021: Week 4 - Fox at the top, a terrible returnee for the Titans, and why I think Bradley Pinion and the Bucs got screwed on a dubious officiating call in Foxborough. All the best stats, analysis and video highlights from last week in punting.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[Local Rail Road Hobby] One man's quest for local rail road dominance.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Comprehensive Guide to complete Kingsfall Raid, credit to /u/dean_m16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Quick Thoughts on every Week 6 game</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>My Favorite Late-Season Trade Targets</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>The Real Story of MH370 - All Evidence and Theories</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FLORIDA UNEMPLOYMENT 101</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Move Over, Josh Gordon - Here Comes Rashard Higgins, the Browns Receiver that you Should Actually Be Watching (ryanj3's senior project)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Developement</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>The return of the king</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Developement</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Legalize All Drugs (not just weed)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>THANK YOU PAPA ELON! ~3m GAINS on TSLA - From -1.7m to +1.1m total</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>gratitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PSA: Pick up the Lions DST now, during their BYE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Decay Subclass Concept, 1/3: The Chainbinder</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cellar Boxing, CME, Citadel, Citi, Apex, Apollo and the High Frequency Friends - the wild rabbit goose hole chase</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The Wolves grow weary with this fight.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CROTA'S END RAID GUIDE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Shady businessman gets his due.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Patch 3.5 &amp; Betrayal League Compiled Information Thread</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Developement</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[OC] What To Expect From Rookie Running Backs Based on History</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
